--- a/Pythonscripts/testdatas/product_configuration.xlsx
+++ b/Pythonscripts/testdatas/product_configuration.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="2"/>
@@ -11,7 +11,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -78,7 +78,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>群星测试0620155936</t>
+    <t>群星测试0701121653</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>

--- a/Pythonscripts/testdatas/product_configuration.xlsx
+++ b/Pythonscripts/testdatas/product_configuration.xlsx
@@ -78,7 +78,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>群星测试0701121653</t>
+    <t>群星测试0705110541</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>

--- a/Pythonscripts/testdatas/product_configuration.xlsx
+++ b/Pythonscripts/testdatas/product_configuration.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="125725" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -78,7 +78,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>群星测试0705110541</t>
+    <t>群星测试0711183738</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -455,7 +455,7 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>103</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -501,7 +501,7 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
